--- a/data_input/analytics/Agents GPU.xlsx
+++ b/data_input/analytics/Agents GPU.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC585D42-1A4D-4DE5-A7C6-5E4946EFFD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Агенты" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -39,9 +29,6 @@
     <t>Хранение</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -51,12 +38,6 @@
     <t>"+1"</t>
   </si>
   <si>
-    <t>partout_trigger_ac</t>
-  </si>
-  <si>
-    <t>assembly_trigger_ac</t>
-  </si>
-  <si>
     <t>Variable - планеры</t>
   </si>
   <si>
@@ -108,54 +89,9 @@
     <t>status_id</t>
   </si>
   <si>
-    <t>location_ac</t>
-  </si>
-  <si>
     <t>Balance check</t>
   </si>
   <si>
-    <r>
-      <t>Неактивно</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - планеры, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spawn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - агрегаты</t>
-    </r>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>Variable - агрегаты</t>
   </si>
   <si>
@@ -171,10 +107,13 @@
     <t>repair_days=repair_time</t>
   </si>
   <si>
-    <t>"+daily_flight" - планеры, "+daily_flight_ac" - агрегаты</t>
-  </si>
-  <si>
-    <t>(ll-sne)&lt;daily_flight (daily_flight_as - агрегаты)</t>
+    <t>current_date+partout_time=1</t>
+  </si>
+  <si>
+    <t>aircraft_number</t>
+  </si>
+  <si>
+    <t>(ll-sne)&lt;daily_flight</t>
   </si>
   <si>
     <r>
@@ -186,7 +125,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(oh-ppr)&lt;daily_flight (daily_flight_as - агрегаты) </t>
+      <t xml:space="preserve">(oh-ppr)&lt;daily_flight </t>
     </r>
     <r>
       <rPr>
@@ -222,7 +161,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(oh-ppr)&lt;daily_flight (daily_flight_as - агрегаты) </t>
+      <t xml:space="preserve">(oh-ppr)&lt;daily_flight </t>
     </r>
     <r>
       <rPr>
@@ -249,22 +188,55 @@
     </r>
   </si>
   <si>
-    <t>current_date+partout_time=1</t>
+    <t>partout_trigger</t>
+  </si>
+  <si>
+    <t>assembly_trigger</t>
+  </si>
+  <si>
+    <t>"+daily_flight"</t>
+  </si>
+  <si>
+    <r>
+      <t>Неактивно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - только планеры</t>
+    </r>
+  </si>
+  <si>
+    <t>heli_pandas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,81 +420,84 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -531,94 +506,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -709,6 +684,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -744,6 +736,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -919,277 +928,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="16" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="30" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.1796875" style="30" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.453125" style="32" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.08984375" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.90625" style="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.90625" style="34" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="1" customWidth="1"/>
     <col min="32" max="32" width="35" style="1" customWidth="1"/>
-    <col min="33" max="33" width="37.453125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="34.1796875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="37.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="34.140625" style="1" customWidth="1"/>
     <col min="35" max="35" width="35" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.453125" style="1"/>
+    <col min="36" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="16" customFormat="1" ht="37.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="16" customFormat="1" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>6</v>
-      </c>
       <c r="T1" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD1" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
       <c r="AH1" s="9"/>
       <c r="AI1" s="9"/>
     </row>
-    <row r="2" spans="1:35" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
+      <c r="B2" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="H2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="K2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="N2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="S2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="40" t="s">
-        <v>8</v>
-      </c>
       <c r="AA2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="37" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="AC2" s="40" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="37" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="AE2" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="AF2" s="14"/>
       <c r="AG2" s="15"/>
       <c r="AH2" s="15"/>
       <c r="AI2" s="15"/>
     </row>
-    <row r="3" spans="1:35" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B3" s="22">
         <v>1</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="44">
         <v>2</v>
       </c>
-      <c r="I3" s="44"/>
+      <c r="I3" s="58" t="s">
+        <v>31</v>
+      </c>
       <c r="J3" s="43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3" s="44">
         <v>2</v>
       </c>
-      <c r="L3" s="44"/>
+      <c r="L3" s="58" t="s">
+        <v>31</v>
+      </c>
       <c r="M3" s="43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="44"/>
@@ -1201,13 +1214,13 @@
       <c r="U3" s="38"/>
       <c r="V3" s="38"/>
       <c r="W3" s="43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X3" s="38">
         <v>2</v>
       </c>
-      <c r="Y3" s="37" t="s">
-        <v>27</v>
+      <c r="Y3" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="Z3" s="40"/>
       <c r="AA3" s="19"/>
@@ -1220,7 +1233,7 @@
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
     </row>
-    <row r="4" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1228,17 +1241,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H4" s="44">
         <v>6</v>
@@ -1247,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K4" s="44">
         <v>6</v>
@@ -1256,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N4" s="38">
         <v>4</v>
@@ -1267,18 +1280,18 @@
       <c r="P4" s="45">
         <v>1</v>
       </c>
-      <c r="Q4" s="57" t="s">
-        <v>40</v>
+      <c r="Q4" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S4" s="47"/>
       <c r="T4" s="38"/>
       <c r="U4" s="39"/>
       <c r="V4" s="45"/>
       <c r="W4" s="43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X4" s="38">
         <v>3</v>
@@ -1292,12 +1305,12 @@
       <c r="AC4" s="48"/>
       <c r="AD4" s="46"/>
       <c r="AE4" s="44"/>
-      <c r="AF4" s="52"/>
+      <c r="AF4" s="56"/>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-    </row>
-    <row r="5" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+    </row>
+    <row r="5" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
@@ -1305,31 +1318,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="49"/>
       <c r="G5" s="43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="44">
         <v>2</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>27</v>
+      <c r="I5" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="44">
         <v>2</v>
       </c>
-      <c r="L5" s="37" t="s">
-        <v>27</v>
+      <c r="L5" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N5" s="38"/>
       <c r="O5" s="44"/>
@@ -1341,13 +1354,13 @@
       <c r="U5" s="50"/>
       <c r="V5" s="50"/>
       <c r="W5" s="43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X5" s="38">
         <v>2</v>
       </c>
-      <c r="Y5" s="37" t="s">
-        <v>27</v>
+      <c r="Y5" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="Z5" s="40"/>
       <c r="AA5" s="51"/>
@@ -1356,15 +1369,15 @@
       <c r="AD5" s="38">
         <v>5</v>
       </c>
-      <c r="AE5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF5" s="52"/>
+      <c r="AE5" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="56"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
@@ -1372,12 +1385,12 @@
         <v>4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
-      <c r="F6" s="54" t="s">
-        <v>7</v>
+      <c r="F6" s="52" t="s">
+        <v>6</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="50"/>
@@ -1415,39 +1428,39 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="22">
         <v>5</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7" s="44">
         <v>2</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>27</v>
+      <c r="I7" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K7" s="44">
         <v>2</v>
       </c>
-      <c r="L7" s="37" t="s">
-        <v>27</v>
+      <c r="L7" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N7" s="50"/>
       <c r="O7" s="44"/>
@@ -1459,13 +1472,13 @@
       <c r="U7" s="50"/>
       <c r="V7" s="50"/>
       <c r="W7" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X7" s="38">
         <v>2</v>
       </c>
-      <c r="Y7" s="37" t="s">
-        <v>27</v>
+      <c r="Y7" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="Z7" s="40"/>
       <c r="AA7" s="38">
@@ -1482,7 +1495,7 @@
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -1520,12 +1533,12 @@
       <c r="AC8" s="48"/>
       <c r="AD8" s="51"/>
       <c r="AE8" s="50"/>
-      <c r="AF8" s="52"/>
+      <c r="AF8" s="56"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-    </row>
-    <row r="9" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+    </row>
+    <row r="9" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -1554,74 +1567,74 @@
       <c r="AC9" s="36"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="11"/>
-      <c r="AF9" s="52"/>
+      <c r="AF9" s="56"/>
       <c r="AG9" s="13"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AF10" s="52"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AF10" s="56"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AF11" s="52"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AF11" s="56"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF12" s="3"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF13" s="3"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF14" s="3"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF15" s="3"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AF16" s="52"/>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AF16" s="56"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="53"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="AF17" s="52"/>
+      <c r="AF17" s="56"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AF18" s="52"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AF18" s="56"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="53"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AF19" s="52"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AF19" s="56"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="53"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="C20" s="27"/>
       <c r="AF20" s="3"/>
@@ -1629,55 +1642,55 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="C21" s="27"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="C22" s="28"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="C23" s="29"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
@@ -1685,15 +1698,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF16:AF19"/>
+    <mergeCell ref="AH16:AH19"/>
+    <mergeCell ref="AI16:AI19"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AF8:AF11"/>
     <mergeCell ref="AH8:AH11"/>
     <mergeCell ref="AI8:AI11"/>
-    <mergeCell ref="AF16:AF19"/>
-    <mergeCell ref="AH16:AH19"/>
-    <mergeCell ref="AI16:AI19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_input/analytics/Agents GPU.xlsx
+++ b/data_input/analytics/Agents GPU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -979,9 +979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -989,40 +989,41 @@
     <col min="1" max="1" width="24" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14" style="13" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" style="18" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.1796875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="18" customWidth="1"/>
     <col min="14" max="14" width="8.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.36328125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.453125" style="19" customWidth="1"/>
+    <col min="16" max="16" width="10.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.453125" style="19" customWidth="1"/>
     <col min="18" max="18" width="9.54296875" style="1" customWidth="1"/>
     <col min="19" max="19" width="15.08984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.26953125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.26953125" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.453125" style="1" customWidth="1"/>
     <col min="23" max="23" width="19.54296875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.90625" style="19" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.81640625" style="18" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.54296875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.54296875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="16.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1796875" style="1" customWidth="1"/>
-    <col min="38" max="39" width="19.453125" style="18" customWidth="1"/>
+    <col min="31" max="31" width="9.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="16.453125" style="20" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="12.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="17.81640625" style="20" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="9.1796875" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="19.453125" style="18" customWidth="1"/>
+    <col min="39" max="39" width="16.453125" style="18" customWidth="1"/>
     <col min="40" max="40" width="28.1796875" style="1" customWidth="1"/>
     <col min="41" max="41" width="17.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="15.90625" style="1" bestFit="1" customWidth="1"/>
@@ -1283,9 +1284,7 @@
       <c r="AK2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AL2" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="AL2" s="10"/>
       <c r="AM2" s="9" t="s">
         <v>4</v>
       </c>

--- a/data_input/analytics/Agents GPU.xlsx
+++ b/data_input/analytics/Agents GPU.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E02B5-1F3B-4BF1-BC7D-C70FD5C7918F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Агенты" sheetId="4" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="72">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -307,13 +308,16 @@
   <si>
     <t>Macroproperty3 + PostProcessing - планеры</t>
   </si>
+  <si>
+    <t>psn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -623,22 +627,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +666,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,8 +678,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -766,6 +770,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -801,6 +822,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -976,69 +1014,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="14" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.08984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.54296875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.90625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="18" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="19" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.54296875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="16.453125" style="20" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" style="20" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="12.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="17.81640625" style="20" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" style="20" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="19.453125" style="18" customWidth="1"/>
-    <col min="39" max="39" width="16.453125" style="18" customWidth="1"/>
-    <col min="40" max="40" width="28.1796875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="19.42578125" style="18" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" style="18" customWidth="1"/>
+    <col min="40" max="40" width="28.140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="8.453125" style="1"/>
+    <col min="49" max="49" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -1322,7 +1360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
@@ -1331,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>21</v>
@@ -1472,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -1536,7 +1574,7 @@
       <c r="AW4" s="40"/>
       <c r="AX4" s="40"/>
     </row>
-    <row r="5" spans="1:50" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -1622,7 +1660,7 @@
       <c r="AW5" s="40"/>
       <c r="AX5" s="40"/>
     </row>
-    <row r="6" spans="1:50" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1752,7 @@
       <c r="AW6" s="40"/>
       <c r="AX6" s="40"/>
     </row>
-    <row r="7" spans="1:50" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -1820,7 +1858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -1886,7 +1924,7 @@
       <c r="AW8" s="40"/>
       <c r="AX8" s="40"/>
     </row>
-    <row r="9" spans="1:50" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1968,7 +2006,7 @@
       <c r="AW9" s="40"/>
       <c r="AX9" s="40"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -2026,98 +2064,98 @@
       <c r="AW10" s="40"/>
       <c r="AX10" s="40"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AN15" s="2"/>
       <c r="AO15" s="46"/>
       <c r="AP15" s="46"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="46"/>
       <c r="AP16" s="46"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AN17" s="2"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AN18" s="2"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
